--- a/BackTest/2019-10-25 BackTest INS.xlsx
+++ b/BackTest/2019-10-25 BackTest INS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>21</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-4.761904761904762</v>
+      </c>
       <c r="L12" t="n">
         <v>227.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>22</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>29.41176470588236</v>
+      </c>
       <c r="L13" t="n">
         <v>227.8</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>26</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-17.64705882352941</v>
+      </c>
       <c r="L14" t="n">
         <v>227.9</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>28</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L15" t="n">
         <v>227.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>29</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-5.263157894736842</v>
+      </c>
       <c r="L16" t="n">
         <v>227.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>29</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>227.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>31</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>5.263157894736842</v>
+      </c>
       <c r="L18" t="n">
         <v>227.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>31</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>227.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>31</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L20" t="n">
         <v>228.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>33</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>228.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>35</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>38.46153846153847</v>
+      </c>
       <c r="L22" t="n">
         <v>229.3</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="K23" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
         <v>229.8</v>
@@ -1466,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="K24" t="n">
-        <v>29.03225806451613</v>
+        <v>75</v>
       </c>
       <c r="L24" t="n">
         <v>230.6</v>
@@ -1515,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="K25" t="n">
-        <v>3.225806451612903</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L25" t="n">
         <v>230.8</v>
@@ -1564,7 +1586,7 @@
         <v>41</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>230.8</v>
@@ -1613,7 +1635,7 @@
         <v>45</v>
       </c>
       <c r="K27" t="n">
-        <v>8.571428571428571</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L27" t="n">
         <v>231.2</v>
@@ -1662,7 +1684,7 @@
         <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.564102564102564</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L28" t="n">
         <v>230.9</v>
@@ -1711,7 +1733,7 @@
         <v>54</v>
       </c>
       <c r="K29" t="n">
-        <v>4.761904761904762</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L29" t="n">
         <v>231</v>
@@ -1760,7 +1782,7 @@
         <v>55</v>
       </c>
       <c r="K30" t="n">
-        <v>12.82051282051282</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L30" t="n">
         <v>231</v>
@@ -1809,7 +1831,7 @@
         <v>56</v>
       </c>
       <c r="K31" t="n">
-        <v>5.555555555555555</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L31" t="n">
         <v>230.9</v>
@@ -1860,7 +1882,7 @@
         <v>56</v>
       </c>
       <c r="K32" t="n">
-        <v>8.571428571428571</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L32" t="n">
         <v>230.6</v>
@@ -1911,7 +1933,7 @@
         <v>57</v>
       </c>
       <c r="K33" t="n">
-        <v>8.571428571428571</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L33" t="n">
         <v>230.4</v>
@@ -1962,7 +1984,7 @@
         <v>58</v>
       </c>
       <c r="K34" t="n">
-        <v>25</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L34" t="n">
         <v>230.4</v>
@@ -2013,7 +2035,7 @@
         <v>58</v>
       </c>
       <c r="K35" t="n">
-        <v>20</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L35" t="n">
         <v>230.8</v>
@@ -2064,7 +2086,7 @@
         <v>58</v>
       </c>
       <c r="K36" t="n">
-        <v>17.24137931034483</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L36" t="n">
         <v>231.3</v>
@@ -2115,7 +2137,7 @@
         <v>58</v>
       </c>
       <c r="K37" t="n">
-        <v>17.24137931034483</v>
+        <v>75</v>
       </c>
       <c r="L37" t="n">
         <v>231.4</v>
@@ -2166,7 +2188,7 @@
         <v>58</v>
       </c>
       <c r="K38" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L38" t="n">
         <v>232</v>
@@ -2217,7 +2239,7 @@
         <v>59</v>
       </c>
       <c r="K39" t="n">
-        <v>7.142857142857142</v>
+        <v>50</v>
       </c>
       <c r="L39" t="n">
         <v>232.1</v>
@@ -2268,7 +2290,7 @@
         <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>10.3448275862069</v>
+        <v>50</v>
       </c>
       <c r="L40" t="n">
         <v>232.4</v>
@@ -2319,7 +2341,7 @@
         <v>60</v>
       </c>
       <c r="K41" t="n">
-        <v>3.703703703703703</v>
+        <v>50</v>
       </c>
       <c r="L41" t="n">
         <v>232.6</v>
@@ -2370,7 +2392,7 @@
         <v>60</v>
       </c>
       <c r="K42" t="n">
-        <v>-4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>232.8</v>
@@ -2421,7 +2443,7 @@
         <v>60</v>
       </c>
       <c r="K43" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>232.9</v>
@@ -2523,7 +2545,7 @@
         <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.9</v>
